--- a/data/trans_dic/P25A_2_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A_2_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por hipertensión/presión arterial alta</t>
+          <t>Población con limitación por hipertensión/presión arterial alta (tasa de respuesta: 99,81%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -661,7 +710,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,47 +720,77 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,11%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,85%</t>
-        </is>
-      </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,77%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,35%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,17 +803,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,24</t>
+          <t>0,0; 3,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,40 +823,70 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>0,0; 7,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 3,48</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,39</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,67</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 2,34</t>
-        </is>
-      </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 2,18</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,49</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,19</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -811,47 +920,77 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,4%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>1,02%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>0,39%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1,46%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
         <is>
           <t>0,58%</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,19%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,48%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>13,23%</t>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,51%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1,41%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,88</t>
+          <t>0,0; 3,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,11</t>
+          <t>0,0; 3,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>0,0; 3,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,0; 4,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0,0; 2,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>0,32; 3,01</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 7,7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0,39; 4,41</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,81</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,92</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 1,34</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 2,17</t>
         </is>
       </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,0</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 1,51</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 58,54</t>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 3,99</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 3,4</t>
         </is>
       </c>
     </row>
@@ -941,7 +1110,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -951,47 +1120,77 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>0,68%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>0,23%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>49,17%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,38%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,68%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,62%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>0,28%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>28,16%</t>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1,81%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1,94%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,03</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>0,0; 1,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,06</t>
+          <t>0,37; 3,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>0,57; 5,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,08</t>
+          <t>0,28; 3,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,15; 82,34</t>
+          <t>0,0; 2,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,66</t>
+          <t>0,8; 4,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,99</t>
+          <t>0,4; 3,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,29; 47,17</t>
+          <t>1,18; 6,37</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 1,68</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,89</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 3,49</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 3,68</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 3,87</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1305,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,47 +1320,77 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4,29%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4,32%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>1,96%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
           <t>1,2%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>1,14%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>9,87%</t>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>3,6%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,42</t>
+          <t>0,87; 5,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,06</t>
+          <t>0,31; 3,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,99</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 24,07</t>
+          <t>0,93; 5,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,85</t>
+          <t>1,3; 6,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,81</t>
+          <t>1,31; 5,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,46</t>
+          <t>0,64; 3,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,34; 20,22</t>
+          <t>0,3; 2,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,3</t>
+          <t>0,76; 3,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,21</t>
+          <t>0,41; 3,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,18</t>
+          <t>2,29; 8,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 17,57</t>
+          <t>2,32; 7,97</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 3,43</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 2,42</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0,53; 2,16</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1,04; 4,02</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>2,18; 5,49</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 5,77</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>2,43%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>5,31%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>9,01%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>5,18%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 6,11</t>
+          <t>1,37; 6,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,22</t>
+          <t>0,84; 4,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,52</t>
+          <t>1,41; 5,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,33; 23,87</t>
+          <t>2,35; 9,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,68</t>
+          <t>5,09; 13,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,52</t>
+          <t>4,35; 12,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 4,01</t>
+          <t>0,58; 4,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,2; 27,36</t>
+          <t>1,1; 5,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,27</t>
+          <t>0,6; 3,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,98</t>
+          <t>2,81; 9,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,89</t>
+          <t>5,75; 13,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,77; 21,98</t>
+          <t>0,95; 6,86</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1,38; 4,5</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 4,13</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1,37; 4,08</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>3,19; 7,88</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>6,29; 12,0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>3,24; 8,11</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>3,27%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6,38%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6,58%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7,99%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>8,02%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>5,08%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>7,29%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>7,7%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>6,46%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>7,18%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
           <t>5,96%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>6,45%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>7,64%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>6,7%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>8,99%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>6,27%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>7,07%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>5,1%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>7,71%</t>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>7,31%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>7,12%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,44; 16,07</t>
+          <t>2,66; 16,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,18; 14,4</t>
+          <t>2,94; 13,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 6,09</t>
+          <t>1,22; 7,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,04; 12,93</t>
+          <t>1,07; 7,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,29; 10,69</t>
+          <t>4,0; 12,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,78; 11,18</t>
+          <t>3,06; 12,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,57; 12,05</t>
+          <t>3,7; 10,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,99; 18,74</t>
+          <t>5,05; 11,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,87; 10,1</t>
+          <t>4,54; 16,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,86; 10,05</t>
+          <t>1,93; 10,18</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,09; 8,3</t>
+          <t>3,82; 12,24</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,85; 12,56</t>
+          <t>4,03; 13,35</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>4,21; 10,54</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>4,95; 10,94</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>3,55; 11,03</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>2,27; 7,06</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>4,77; 10,89</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>4,28; 10,68</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>3,53%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,99%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>4,04%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>3,33%</t>
         </is>
       </c>
     </row>
@@ -1564,7 +2003,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,55</t>
+          <t>1,28; 3,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1574,68 +2013,2409 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,66</t>
+          <t>0,65; 1,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,79; 14,96</t>
+          <t>1,39; 3,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,82</t>
+          <t>2,69; 5,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,32</t>
+          <t>2,17; 4,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,19</t>
+          <t>1,23; 2,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,4; 18,11</t>
+          <t>1,75; 3,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,41; 2,81</t>
+          <t>1,59; 3,99</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,68</t>
+          <t>1,75; 3,73</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,25</t>
+          <t>3,07; 5,73</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,5; 14,64</t>
+          <t>2,51; 5,09</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 2,74</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1,54; 2,64</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1,26; 2,7</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 3,14</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>3,28; 4,96</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 4,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por hipertensión/presión arterial alta (tasa de respuesta: 99,81%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3022</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4913</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3546</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>7934</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>3546</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17658</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3239</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17914</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17398</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2211; 22546</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15251</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3463</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6305</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7845</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5682</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7398</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6305</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5682</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>1495</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>15242</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19478</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1852</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1731</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 27345</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10161</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1649; 15546</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>246; 3543</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1969; 22254</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19709</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9847</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1619; 14890</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2091</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>490; 3794</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>5315; 36850</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4056</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2242</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7741</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4873</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1271</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>19153</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>8929</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>3874</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>2057</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>2046</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>26894</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13121</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12466</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>222; 2202</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>342; 3042</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1910; 20756</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15535</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9004</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>426; 2573</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>222; 1985</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8451; 45419</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2626; 23327</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12426</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1060; 3964</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>873; 4247</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>13404; 53833</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>14903</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8291</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3682</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1441</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1736</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>18997</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>11190</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7490</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>11149</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2284</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>28216</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>26093</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>15781</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>14831</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2314</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>4020</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>47213</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5628; 33067</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1999; 20368</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13772</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>539; 3129</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>743; 3450</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>8607; 35518</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4382; 24818</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1985; 17367</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>4965; 22279</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>215; 2009</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1222; 4274</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>15143; 52075</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>14193; 45699</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>7663; 31842</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>6854; 27887</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1150; 4450</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>2407; 6054</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>28680; 75682</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>16304</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11544</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>14963</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2352</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3970</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>36653</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10117</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>12322</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>9492</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2574</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>15745</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>26420</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>23866</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>24454</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>4926</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>8221</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>52398</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6789; 32821</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4208; 24495</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6932; 27855</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1041; 4198</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2275; 6068</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>21523; 59650</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2931; 24157</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5494; 26745</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3099; 20532</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1363; 4415</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2676; 6338</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4904; 35486</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>13797; 45029</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>12419; 41491</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>13805; 41117</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>2955; 7307</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>5734; 10949</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>32813; 82023</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>34417</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>32172</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>17592</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1533</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3369</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>36126</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>47204</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>55316</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>55105</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>3166</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4575</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>55799</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>81620</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>87488</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>72698</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>4699</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>7944</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>91925</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>14503; 90842</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>15493; 68478</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>6472; 39350</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>503; 3442</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1834; 5876</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>17329; 70880</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>26575; 77083</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>34961; 79430</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>31207; 112183</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>1203; 6350</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2395; 7681</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>29180; 96651</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>53201; 133066</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>60260; 133344</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>43321; 134443</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>2481; 7704</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>5177; 11828</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>55200; 137900</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>71928</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>59085</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>38479</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>6523</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>11368</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>107361</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>68510</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>86890</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>86605</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>7884</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>13004</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>126311</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>140438</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>145975</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>125084</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>14407</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>24372</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>233672</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>44303; 124607</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>37783; 92831</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>22442; 66072</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>4187; 9638</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>8083; 15066</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>74651; 151491</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>44344; 103239</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>62950; 118658</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>57242; 143433</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>5272; 11238</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>9280; 17311</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>89716; 182418</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>99288; 192888</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>108136; 185806</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>88736; 190272</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>10637; 18881</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>19784; 29917</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>184596; 295585</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
